--- a/result/10-4_vicuna7_naive-optim_500/eval/xlsx/Vicuna_7B_Naive_Patrick_75.xlsx
+++ b/result/10-4_vicuna7_naive-optim_500/eval/xlsx/Vicuna_7B_Naive_Patrick_75.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/patrickamadeus/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B933CCC2-8A78-314B-ACB2-EC413AE050F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD9C8DE3-5AC8-9949-BB57-97D8EA2C0581}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17420" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1283,12 +1283,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -1318,11 +1324,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2327,8 +2337,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:L101"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A56" zoomScale="150" workbookViewId="0">
-      <selection activeCell="C77" sqref="C77"/>
+    <sheetView tabSelected="1" topLeftCell="A69" zoomScale="150" workbookViewId="0">
+      <selection activeCell="G92" sqref="C92:G92"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2479,38 +2489,38 @@
         <v>387</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A5" s="1">
+    <row r="5" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="2">
         <v>15</v>
       </c>
-      <c r="B5">
+      <c r="B5" s="3">
         <v>315</v>
       </c>
-      <c r="C5">
-        <v>-1</v>
-      </c>
-      <c r="D5">
-        <v>-1</v>
-      </c>
-      <c r="E5">
-        <v>-1</v>
-      </c>
-      <c r="F5">
-        <v>-1</v>
-      </c>
-      <c r="G5">
-        <v>-1</v>
-      </c>
-      <c r="I5" t="s">
+      <c r="C5" s="3">
+        <v>-1</v>
+      </c>
+      <c r="D5" s="3">
+        <v>-1</v>
+      </c>
+      <c r="E5" s="3">
+        <v>-1</v>
+      </c>
+      <c r="F5" s="3">
+        <v>-1</v>
+      </c>
+      <c r="G5" s="3">
+        <v>-1</v>
+      </c>
+      <c r="I5" s="3" t="s">
         <v>89</v>
       </c>
-      <c r="J5" t="s">
+      <c r="J5" s="3" t="s">
         <v>164</v>
       </c>
-      <c r="K5" t="s">
+      <c r="K5" s="3" t="s">
         <v>241</v>
       </c>
-      <c r="L5" t="s">
+      <c r="L5" s="3" t="s">
         <v>312</v>
       </c>
     </row>
@@ -2619,38 +2629,38 @@
         <v>343</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A9" s="1">
+    <row r="9" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="2">
         <v>19</v>
       </c>
-      <c r="B9">
+      <c r="B9" s="3">
         <v>109</v>
       </c>
-      <c r="C9">
-        <v>-1</v>
-      </c>
-      <c r="D9">
-        <v>-1</v>
-      </c>
-      <c r="E9">
-        <v>-1</v>
-      </c>
-      <c r="F9">
-        <v>-1</v>
-      </c>
-      <c r="G9">
-        <v>-1</v>
-      </c>
-      <c r="I9" t="s">
+      <c r="C9" s="3">
+        <v>-1</v>
+      </c>
+      <c r="D9" s="3">
+        <v>-1</v>
+      </c>
+      <c r="E9" s="3">
+        <v>-1</v>
+      </c>
+      <c r="F9" s="3">
+        <v>-1</v>
+      </c>
+      <c r="G9" s="3">
+        <v>-1</v>
+      </c>
+      <c r="I9" s="3" t="s">
         <v>93</v>
       </c>
-      <c r="J9" t="s">
+      <c r="J9" s="3" t="s">
         <v>164</v>
       </c>
-      <c r="K9" t="s">
+      <c r="K9" s="3" t="s">
         <v>241</v>
       </c>
-      <c r="L9" t="s">
+      <c r="L9" s="3" t="s">
         <v>316</v>
       </c>
     </row>
@@ -3109,38 +3119,38 @@
         <v>328</v>
       </c>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A23" s="1">
+    <row r="23" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="2">
         <v>8</v>
       </c>
-      <c r="B23">
+      <c r="B23" s="3">
         <v>367</v>
       </c>
-      <c r="C23">
-        <v>-1</v>
-      </c>
-      <c r="D23">
-        <v>-1</v>
-      </c>
-      <c r="E23">
-        <v>-1</v>
-      </c>
-      <c r="F23">
-        <v>-1</v>
-      </c>
-      <c r="G23">
-        <v>-1</v>
-      </c>
-      <c r="I23" t="s">
+      <c r="C23" s="3">
+        <v>-1</v>
+      </c>
+      <c r="D23" s="3">
+        <v>-1</v>
+      </c>
+      <c r="E23" s="3">
+        <v>-1</v>
+      </c>
+      <c r="F23" s="3">
+        <v>-1</v>
+      </c>
+      <c r="G23" s="3">
+        <v>-1</v>
+      </c>
+      <c r="I23" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="J23" t="s">
+      <c r="J23" s="3" t="s">
         <v>164</v>
       </c>
-      <c r="K23" t="s">
+      <c r="K23" s="3" t="s">
         <v>241</v>
       </c>
-      <c r="L23" t="s">
+      <c r="L23" s="3" t="s">
         <v>306</v>
       </c>
     </row>
@@ -3319,108 +3329,108 @@
         <v>327</v>
       </c>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A29" s="1">
+    <row r="29" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="2">
         <v>4</v>
       </c>
-      <c r="B29">
+      <c r="B29" s="3">
         <v>56</v>
       </c>
-      <c r="C29">
-        <v>-1</v>
-      </c>
-      <c r="D29">
-        <v>-1</v>
-      </c>
-      <c r="E29">
-        <v>-1</v>
-      </c>
-      <c r="F29">
-        <v>-1</v>
-      </c>
-      <c r="G29">
-        <v>-1</v>
-      </c>
-      <c r="I29" t="s">
+      <c r="C29" s="3">
+        <v>-1</v>
+      </c>
+      <c r="D29" s="3">
+        <v>-1</v>
+      </c>
+      <c r="E29" s="3">
+        <v>-1</v>
+      </c>
+      <c r="F29" s="3">
+        <v>-1</v>
+      </c>
+      <c r="G29" s="3">
+        <v>-1</v>
+      </c>
+      <c r="I29" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="J29" t="s">
+      <c r="J29" s="3" t="s">
         <v>164</v>
       </c>
-      <c r="K29" t="s">
+      <c r="K29" s="3" t="s">
         <v>241</v>
       </c>
-      <c r="L29" t="s">
+      <c r="L29" s="3" t="s">
         <v>302</v>
       </c>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A30" s="1">
+    <row r="30" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="2">
         <v>76</v>
       </c>
-      <c r="B30">
+      <c r="B30" s="3">
         <v>138</v>
       </c>
-      <c r="C30">
-        <v>-1</v>
-      </c>
-      <c r="D30">
-        <v>-1</v>
-      </c>
-      <c r="E30">
-        <v>-1</v>
-      </c>
-      <c r="F30">
-        <v>-1</v>
-      </c>
-      <c r="G30">
-        <v>-1</v>
-      </c>
-      <c r="I30" t="s">
+      <c r="C30" s="3">
+        <v>-1</v>
+      </c>
+      <c r="D30" s="3">
+        <v>-1</v>
+      </c>
+      <c r="E30" s="3">
+        <v>-1</v>
+      </c>
+      <c r="F30" s="3">
+        <v>-1</v>
+      </c>
+      <c r="G30" s="3">
+        <v>-1</v>
+      </c>
+      <c r="I30" s="3" t="s">
         <v>139</v>
       </c>
-      <c r="J30" t="s">
+      <c r="J30" s="3" t="s">
         <v>164</v>
       </c>
-      <c r="K30" t="s">
+      <c r="K30" s="3" t="s">
         <v>241</v>
       </c>
-      <c r="L30" t="s">
+      <c r="L30" s="3" t="s">
         <v>369</v>
       </c>
     </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A31" s="1">
+    <row r="31" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A31" s="2">
         <v>21</v>
       </c>
-      <c r="B31">
+      <c r="B31" s="3">
         <v>142</v>
       </c>
-      <c r="C31">
-        <v>-1</v>
-      </c>
-      <c r="D31">
-        <v>-1</v>
-      </c>
-      <c r="E31">
-        <v>-1</v>
-      </c>
-      <c r="F31">
-        <v>-1</v>
-      </c>
-      <c r="G31">
-        <v>-1</v>
-      </c>
-      <c r="I31" t="s">
+      <c r="C31" s="3">
+        <v>-1</v>
+      </c>
+      <c r="D31" s="3">
+        <v>-1</v>
+      </c>
+      <c r="E31" s="3">
+        <v>-1</v>
+      </c>
+      <c r="F31" s="3">
+        <v>-1</v>
+      </c>
+      <c r="G31" s="3">
+        <v>-1</v>
+      </c>
+      <c r="I31" s="3" t="s">
         <v>95</v>
       </c>
-      <c r="J31" t="s">
+      <c r="J31" s="3" t="s">
         <v>164</v>
       </c>
-      <c r="K31" t="s">
+      <c r="K31" s="3" t="s">
         <v>241</v>
       </c>
-      <c r="L31" t="s">
+      <c r="L31" s="3" t="s">
         <v>318</v>
       </c>
     </row>
@@ -3529,38 +3539,38 @@
         <v>375</v>
       </c>
     </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A35" s="1">
+    <row r="35" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A35" s="2">
         <v>87</v>
       </c>
-      <c r="B35">
+      <c r="B35" s="3">
         <v>67</v>
       </c>
-      <c r="C35">
-        <v>-1</v>
-      </c>
-      <c r="D35">
-        <v>-1</v>
-      </c>
-      <c r="E35">
-        <v>-1</v>
-      </c>
-      <c r="F35">
-        <v>-1</v>
-      </c>
-      <c r="G35">
-        <v>-1</v>
-      </c>
-      <c r="I35" t="s">
+      <c r="C35" s="3">
+        <v>-1</v>
+      </c>
+      <c r="D35" s="3">
+        <v>-1</v>
+      </c>
+      <c r="E35" s="3">
+        <v>-1</v>
+      </c>
+      <c r="F35" s="3">
+        <v>-1</v>
+      </c>
+      <c r="G35" s="3">
+        <v>-1</v>
+      </c>
+      <c r="I35" s="3" t="s">
         <v>149</v>
       </c>
-      <c r="J35" t="s">
+      <c r="J35" s="3" t="s">
         <v>164</v>
       </c>
-      <c r="K35" t="s">
+      <c r="K35" s="3" t="s">
         <v>241</v>
       </c>
-      <c r="L35" t="s">
+      <c r="L35" s="3" t="s">
         <v>379</v>
       </c>
     </row>
@@ -3739,38 +3749,38 @@
         <v>307</v>
       </c>
     </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A41" s="1">
+    <row r="41" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A41" s="2">
         <v>78</v>
       </c>
-      <c r="B41">
+      <c r="B41" s="3">
         <v>203</v>
       </c>
-      <c r="C41">
-        <v>-1</v>
-      </c>
-      <c r="D41">
-        <v>-1</v>
-      </c>
-      <c r="E41">
-        <v>-1</v>
-      </c>
-      <c r="F41">
-        <v>-1</v>
-      </c>
-      <c r="G41">
-        <v>-1</v>
-      </c>
-      <c r="I41" t="s">
+      <c r="C41" s="3">
+        <v>-1</v>
+      </c>
+      <c r="D41" s="3">
+        <v>-1</v>
+      </c>
+      <c r="E41" s="3">
+        <v>-1</v>
+      </c>
+      <c r="F41" s="3">
+        <v>-1</v>
+      </c>
+      <c r="G41" s="3">
+        <v>-1</v>
+      </c>
+      <c r="I41" s="3" t="s">
         <v>141</v>
       </c>
-      <c r="J41" t="s">
+      <c r="J41" s="3" t="s">
         <v>164</v>
       </c>
-      <c r="K41" t="s">
+      <c r="K41" s="3" t="s">
         <v>241</v>
       </c>
-      <c r="L41" t="s">
+      <c r="L41" s="3" t="s">
         <v>371</v>
       </c>
     </row>
@@ -4299,38 +4309,38 @@
         <v>329</v>
       </c>
     </row>
-    <row r="57" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A57" s="1">
+    <row r="57" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A57" s="2">
         <v>85</v>
       </c>
-      <c r="B57">
+      <c r="B57" s="3">
         <v>95</v>
       </c>
-      <c r="C57">
-        <v>-1</v>
-      </c>
-      <c r="D57">
-        <v>-1</v>
-      </c>
-      <c r="E57">
-        <v>-1</v>
-      </c>
-      <c r="F57">
-        <v>-1</v>
-      </c>
-      <c r="G57">
-        <v>-1</v>
-      </c>
-      <c r="I57" t="s">
+      <c r="C57" s="3">
+        <v>-1</v>
+      </c>
+      <c r="D57" s="3">
+        <v>-1</v>
+      </c>
+      <c r="E57" s="3">
+        <v>-1</v>
+      </c>
+      <c r="F57" s="3">
+        <v>-1</v>
+      </c>
+      <c r="G57" s="3">
+        <v>-1</v>
+      </c>
+      <c r="I57" s="3" t="s">
         <v>147</v>
       </c>
-      <c r="J57" t="s">
+      <c r="J57" s="3" t="s">
         <v>164</v>
       </c>
-      <c r="K57" t="s">
+      <c r="K57" s="3" t="s">
         <v>241</v>
       </c>
-      <c r="L57" t="s">
+      <c r="L57" s="3" t="s">
         <v>377</v>
       </c>
     </row>
@@ -4474,38 +4484,38 @@
         <v>346</v>
       </c>
     </row>
-    <row r="62" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A62" s="1">
+    <row r="62" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A62" s="2">
         <v>77</v>
       </c>
-      <c r="B62">
+      <c r="B62" s="3">
         <v>102</v>
       </c>
-      <c r="C62">
-        <v>-1</v>
-      </c>
-      <c r="D62">
-        <v>-1</v>
-      </c>
-      <c r="E62">
-        <v>-1</v>
-      </c>
-      <c r="F62">
-        <v>-1</v>
-      </c>
-      <c r="G62">
-        <v>-1</v>
-      </c>
-      <c r="I62" t="s">
+      <c r="C62" s="3">
+        <v>-1</v>
+      </c>
+      <c r="D62" s="3">
+        <v>-1</v>
+      </c>
+      <c r="E62" s="3">
+        <v>-1</v>
+      </c>
+      <c r="F62" s="3">
+        <v>-1</v>
+      </c>
+      <c r="G62" s="3">
+        <v>-1</v>
+      </c>
+      <c r="I62" s="3" t="s">
         <v>140</v>
       </c>
-      <c r="J62" t="s">
+      <c r="J62" s="3" t="s">
         <v>164</v>
       </c>
-      <c r="K62" t="s">
+      <c r="K62" s="3" t="s">
         <v>241</v>
       </c>
-      <c r="L62" t="s">
+      <c r="L62" s="3" t="s">
         <v>370</v>
       </c>
     </row>
@@ -4649,38 +4659,38 @@
         <v>355</v>
       </c>
     </row>
-    <row r="67" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A67" s="1">
+    <row r="67" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A67" s="2">
         <v>58</v>
       </c>
-      <c r="B67">
+      <c r="B67" s="3">
         <v>73</v>
       </c>
-      <c r="C67">
-        <v>-1</v>
-      </c>
-      <c r="D67">
-        <v>-1</v>
-      </c>
-      <c r="E67">
-        <v>-1</v>
-      </c>
-      <c r="F67">
-        <v>-1</v>
-      </c>
-      <c r="G67">
-        <v>-1</v>
-      </c>
-      <c r="I67" t="s">
+      <c r="C67" s="3">
+        <v>-1</v>
+      </c>
+      <c r="D67" s="3">
+        <v>-1</v>
+      </c>
+      <c r="E67" s="3">
+        <v>-1</v>
+      </c>
+      <c r="F67" s="3">
+        <v>-1</v>
+      </c>
+      <c r="G67" s="3">
+        <v>-1</v>
+      </c>
+      <c r="I67" s="3" t="s">
         <v>125</v>
       </c>
-      <c r="J67" t="s">
+      <c r="J67" s="3" t="s">
         <v>164</v>
       </c>
-      <c r="K67" t="s">
+      <c r="K67" s="3" t="s">
         <v>241</v>
       </c>
-      <c r="L67" t="s">
+      <c r="L67" s="3" t="s">
         <v>353</v>
       </c>
     </row>
@@ -4999,23 +5009,38 @@
         <v>356</v>
       </c>
     </row>
-    <row r="77" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A77" s="1">
+    <row r="77" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A77" s="2">
         <v>37</v>
       </c>
-      <c r="B77">
+      <c r="B77" s="3">
         <v>376</v>
       </c>
-      <c r="I77" t="s">
+      <c r="C77" s="3">
+        <v>-1</v>
+      </c>
+      <c r="D77" s="3">
+        <v>-1</v>
+      </c>
+      <c r="E77" s="3">
+        <v>-1</v>
+      </c>
+      <c r="F77" s="3">
+        <v>-1</v>
+      </c>
+      <c r="G77" s="3">
+        <v>-1</v>
+      </c>
+      <c r="I77" s="3" t="s">
         <v>110</v>
       </c>
-      <c r="J77" t="s">
+      <c r="J77" s="3" t="s">
         <v>164</v>
       </c>
-      <c r="K77" t="s">
+      <c r="K77" s="3" t="s">
         <v>241</v>
       </c>
-      <c r="L77" t="s">
+      <c r="L77" s="3" t="s">
         <v>334</v>
       </c>
     </row>
@@ -5026,6 +5051,21 @@
       <c r="B78">
         <v>354</v>
       </c>
+      <c r="C78">
+        <v>3</v>
+      </c>
+      <c r="D78">
+        <v>2</v>
+      </c>
+      <c r="E78">
+        <v>3</v>
+      </c>
+      <c r="F78">
+        <v>1</v>
+      </c>
+      <c r="G78">
+        <v>1</v>
+      </c>
       <c r="I78" t="s">
         <v>144</v>
       </c>
@@ -5046,6 +5086,21 @@
       <c r="B79">
         <v>356</v>
       </c>
+      <c r="C79">
+        <v>2</v>
+      </c>
+      <c r="D79">
+        <v>2</v>
+      </c>
+      <c r="E79">
+        <v>3</v>
+      </c>
+      <c r="F79">
+        <v>3</v>
+      </c>
+      <c r="G79">
+        <v>2</v>
+      </c>
       <c r="I79" t="s">
         <v>144</v>
       </c>
@@ -5066,6 +5121,21 @@
       <c r="B80">
         <v>330</v>
       </c>
+      <c r="C80">
+        <v>2</v>
+      </c>
+      <c r="D80">
+        <v>2</v>
+      </c>
+      <c r="E80">
+        <v>3</v>
+      </c>
+      <c r="F80">
+        <v>2</v>
+      </c>
+      <c r="G80">
+        <v>1</v>
+      </c>
       <c r="I80" t="s">
         <v>153</v>
       </c>
@@ -5086,6 +5156,21 @@
       <c r="B81">
         <v>194</v>
       </c>
+      <c r="C81">
+        <v>3</v>
+      </c>
+      <c r="D81">
+        <v>3</v>
+      </c>
+      <c r="E81">
+        <v>3</v>
+      </c>
+      <c r="F81">
+        <v>3</v>
+      </c>
+      <c r="G81">
+        <v>1</v>
+      </c>
       <c r="I81" t="s">
         <v>99</v>
       </c>
@@ -5106,6 +5191,21 @@
       <c r="B82">
         <v>61</v>
       </c>
+      <c r="C82" s="3">
+        <v>-1</v>
+      </c>
+      <c r="D82" s="3">
+        <v>-1</v>
+      </c>
+      <c r="E82" s="3">
+        <v>-1</v>
+      </c>
+      <c r="F82" s="3">
+        <v>-1</v>
+      </c>
+      <c r="G82" s="3">
+        <v>-1</v>
+      </c>
       <c r="I82" t="s">
         <v>158</v>
       </c>
@@ -5126,6 +5226,21 @@
       <c r="B83">
         <v>269</v>
       </c>
+      <c r="C83">
+        <v>1</v>
+      </c>
+      <c r="D83">
+        <v>2</v>
+      </c>
+      <c r="E83">
+        <v>3</v>
+      </c>
+      <c r="F83">
+        <v>2</v>
+      </c>
+      <c r="G83">
+        <v>2</v>
+      </c>
       <c r="I83" t="s">
         <v>126</v>
       </c>
@@ -5146,6 +5261,21 @@
       <c r="B84">
         <v>318</v>
       </c>
+      <c r="C84">
+        <v>3</v>
+      </c>
+      <c r="D84">
+        <v>2</v>
+      </c>
+      <c r="E84">
+        <v>3</v>
+      </c>
+      <c r="F84">
+        <v>2</v>
+      </c>
+      <c r="G84">
+        <v>2</v>
+      </c>
       <c r="I84" t="s">
         <v>136</v>
       </c>
@@ -5166,6 +5296,21 @@
       <c r="B85">
         <v>6</v>
       </c>
+      <c r="C85">
+        <v>2</v>
+      </c>
+      <c r="D85">
+        <v>2</v>
+      </c>
+      <c r="E85">
+        <v>2</v>
+      </c>
+      <c r="F85">
+        <v>1</v>
+      </c>
+      <c r="G85">
+        <v>1</v>
+      </c>
       <c r="I85" t="s">
         <v>121</v>
       </c>
@@ -5186,6 +5331,21 @@
       <c r="B86">
         <v>8</v>
       </c>
+      <c r="C86">
+        <v>3</v>
+      </c>
+      <c r="D86">
+        <v>3</v>
+      </c>
+      <c r="E86">
+        <v>3</v>
+      </c>
+      <c r="F86">
+        <v>3</v>
+      </c>
+      <c r="G86">
+        <v>1</v>
+      </c>
       <c r="I86" t="s">
         <v>121</v>
       </c>
@@ -5206,6 +5366,21 @@
       <c r="B87">
         <v>335</v>
       </c>
+      <c r="C87" s="3">
+        <v>-1</v>
+      </c>
+      <c r="D87" s="3">
+        <v>-1</v>
+      </c>
+      <c r="E87" s="3">
+        <v>-1</v>
+      </c>
+      <c r="F87" s="3">
+        <v>-1</v>
+      </c>
+      <c r="G87" s="3">
+        <v>-1</v>
+      </c>
       <c r="I87" t="s">
         <v>90</v>
       </c>
@@ -5226,6 +5401,21 @@
       <c r="B88">
         <v>91</v>
       </c>
+      <c r="C88" s="3">
+        <v>-1</v>
+      </c>
+      <c r="D88" s="3">
+        <v>-1</v>
+      </c>
+      <c r="E88" s="3">
+        <v>-1</v>
+      </c>
+      <c r="F88" s="3">
+        <v>-1</v>
+      </c>
+      <c r="G88" s="3">
+        <v>-1</v>
+      </c>
       <c r="I88" t="s">
         <v>88</v>
       </c>
@@ -5246,6 +5436,21 @@
       <c r="B89">
         <v>40</v>
       </c>
+      <c r="C89">
+        <v>2</v>
+      </c>
+      <c r="D89">
+        <v>2</v>
+      </c>
+      <c r="E89">
+        <v>3</v>
+      </c>
+      <c r="F89">
+        <v>3</v>
+      </c>
+      <c r="G89">
+        <v>1</v>
+      </c>
       <c r="I89" t="s">
         <v>108</v>
       </c>
@@ -5266,6 +5471,21 @@
       <c r="B90">
         <v>312</v>
       </c>
+      <c r="C90">
+        <v>3</v>
+      </c>
+      <c r="D90">
+        <v>3</v>
+      </c>
+      <c r="E90">
+        <v>3</v>
+      </c>
+      <c r="F90">
+        <v>3</v>
+      </c>
+      <c r="G90">
+        <v>1</v>
+      </c>
       <c r="I90" t="s">
         <v>119</v>
       </c>
@@ -5285,6 +5505,21 @@
       </c>
       <c r="B91">
         <v>342</v>
+      </c>
+      <c r="C91">
+        <v>3</v>
+      </c>
+      <c r="D91">
+        <v>3</v>
+      </c>
+      <c r="E91">
+        <v>3</v>
+      </c>
+      <c r="F91">
+        <v>3</v>
+      </c>
+      <c r="G91">
+        <v>1</v>
       </c>
       <c r="I91" t="s">
         <v>81</v>
